--- a/BackLog Assistlist.3.xlsx
+++ b/BackLog Assistlist.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harold\Desktop\Gamelab1Groep2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Nina-s-big-little-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="357">
   <si>
     <t>Concept Art</t>
   </si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t>3D_E_SA</t>
+  </si>
+  <si>
+    <t>Cobweb</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1565,7 @@
   <dimension ref="A1:K332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,7 +3334,7 @@
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="1" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>295</v>

--- a/BackLog Assistlist.3.xlsx
+++ b/BackLog Assistlist.3.xlsx
@@ -908,9 +908,6 @@
     <t>A6_NP_DF</t>
   </si>
   <si>
-    <t>3D_P_SW</t>
-  </si>
-  <si>
     <t>3D_P_GS</t>
   </si>
   <si>
@@ -1007,9 +1004,6 @@
     <t>4UW_B_DH</t>
   </si>
   <si>
-    <t>4UW_P_SW</t>
-  </si>
-  <si>
     <t>4UW_P_GS</t>
   </si>
   <si>
@@ -1092,6 +1086,12 @@
   </si>
   <si>
     <t>Cobweb</t>
+  </si>
+  <si>
+    <t>3D_P_CW</t>
+  </si>
+  <si>
+    <t>4UW_P_CW</t>
   </si>
 </sst>
 </file>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="B160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,7 +2906,7 @@
         <v>217</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3334,10 +3334,10 @@
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
@@ -3357,7 +3357,7 @@
         <v>227</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
@@ -3380,7 +3380,7 @@
         <v>230</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
@@ -3400,7 +3400,7 @@
         <v>231</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E112" s="1">
         <v>2</v>
@@ -3422,7 +3422,7 @@
         <v>164</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -3444,7 +3444,7 @@
         <v>283</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>232</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         <v>233</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -3519,7 +3519,7 @@
         <v>234</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -3546,7 +3546,7 @@
         <v>236</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>237</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
@@ -3593,7 +3593,7 @@
         <v>244</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E120" s="1">
         <v>2</v>
@@ -3613,7 +3613,7 @@
         <v>246</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E121" s="1">
         <v>2</v>
@@ -3633,7 +3633,7 @@
         <v>248</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E122" s="1">
         <v>3</v>
@@ -3653,7 +3653,7 @@
         <v>250</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E123" s="1">
         <v>2</v>
@@ -3679,7 +3679,7 @@
         <v>252</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E124" s="1">
         <v>3</v>
@@ -3699,7 +3699,7 @@
         <v>285</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E125" s="1">
         <v>3</v>
@@ -3719,7 +3719,7 @@
         <v>255</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
@@ -3739,7 +3739,7 @@
         <v>96</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
@@ -3766,7 +3766,7 @@
         <v>258</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -3792,7 +3792,7 @@
         <v>259</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E129" s="1">
         <v>3</v>
@@ -3812,7 +3812,7 @@
         <v>97</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E130" s="1">
         <v>3</v>
@@ -3832,7 +3832,7 @@
         <v>261</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -3858,7 +3858,7 @@
         <v>262</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E132" s="1">
         <v>2</v>
@@ -3884,7 +3884,7 @@
         <v>99</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
@@ -3910,7 +3910,7 @@
         <v>263</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E134" s="1">
         <v>3</v>
@@ -4133,7 +4133,7 @@
         <v>215</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
@@ -4154,7 +4154,7 @@
         <v>214</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
@@ -4175,7 +4175,7 @@
         <v>216</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -4196,7 +4196,7 @@
         <v>217</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         <v>218</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -4236,7 +4236,7 @@
         <v>219</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>216</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E161" s="1">
         <v>1</v>
@@ -4339,7 +4339,7 @@
         <v>280</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E162" s="1">
         <v>2</v>
@@ -4384,10 +4384,10 @@
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="1" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
@@ -4407,7 +4407,7 @@
         <v>227</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E166" s="1">
         <v>3</v>
@@ -4427,7 +4427,7 @@
         <v>230</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E167" s="1">
         <v>3</v>
@@ -4447,7 +4447,7 @@
         <v>231</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E168" s="1">
         <v>2</v>
@@ -4467,7 +4467,7 @@
         <v>164</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
@@ -4487,7 +4487,7 @@
         <v>283</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E170" s="1">
         <v>2</v>
@@ -4507,7 +4507,7 @@
         <v>232</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -4527,7 +4527,7 @@
         <v>233</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -4547,7 +4547,7 @@
         <v>234</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -4567,7 +4567,7 @@
         <v>236</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -4587,7 +4587,7 @@
         <v>237</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E175" s="1">
         <v>3</v>
@@ -4607,7 +4607,7 @@
         <v>244</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E176" s="1">
         <v>2</v>
@@ -4627,7 +4627,7 @@
         <v>246</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E177" s="1">
         <v>2</v>
@@ -4647,7 +4647,7 @@
         <v>248</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E178" s="1">
         <v>3</v>
@@ -4667,7 +4667,7 @@
         <v>250</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E179" s="1">
         <v>2</v>
@@ -4687,7 +4687,7 @@
         <v>252</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E180" s="1">
         <v>3</v>
@@ -4707,7 +4707,7 @@
         <v>285</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E181" s="1">
         <v>3</v>
@@ -4727,7 +4727,7 @@
         <v>255</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E182" s="1">
         <v>3</v>
@@ -4747,7 +4747,7 @@
         <v>96</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -4767,7 +4767,7 @@
         <v>258</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E184" s="1">
         <v>3</v>
@@ -4787,7 +4787,7 @@
         <v>259</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E185" s="1">
         <v>2</v>
@@ -4807,7 +4807,7 @@
         <v>97</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E186" s="1">
         <v>3</v>
@@ -4827,7 +4827,7 @@
         <v>261</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E187" s="1">
         <v>2</v>
@@ -4847,7 +4847,7 @@
         <v>262</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E188" s="1">
         <v>2</v>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>263</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E190" s="1">
         <v>3</v>
